--- a/mim_startex/outs/F PO110944 - 101423 ARJUN - MA.xlsx
+++ b/mim_startex/outs/F PO110944 - 101423 ARJUN - MA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,11 @@
           <t>Barcode</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Total Qty.</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -652,6 +657,11 @@
           <t>5711703315180</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -755,6 +765,11 @@
           <t>5711703315197</t>
         </is>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -858,6 +873,11 @@
           <t>5711703315203</t>
         </is>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -961,6 +981,11 @@
           <t>5711703315210</t>
         </is>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1064,6 +1089,11 @@
           <t>5711703315227</t>
         </is>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1167,6 +1197,11 @@
           <t>5715524357282</t>
         </is>
       </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1270,6 +1305,11 @@
           <t>5715524357299</t>
         </is>
       </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1373,6 +1413,11 @@
           <t>5715524357305</t>
         </is>
       </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1476,6 +1521,11 @@
           <t>5715524357312</t>
         </is>
       </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1579,6 +1629,11 @@
           <t>5715524357329</t>
         </is>
       </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1682,6 +1737,11 @@
           <t>5715524476358</t>
         </is>
       </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1785,6 +1845,11 @@
           <t>5715524476365</t>
         </is>
       </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1888,6 +1953,11 @@
           <t>5715524476372</t>
         </is>
       </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1991,6 +2061,11 @@
           <t>5715524476389</t>
         </is>
       </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2094,6 +2169,11 @@
           <t>5715524476396</t>
         </is>
       </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2197,6 +2277,11 @@
           <t>5711703453646</t>
         </is>
       </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2300,6 +2385,11 @@
           <t>5711703453653</t>
         </is>
       </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2403,6 +2493,11 @@
           <t>5711703453660</t>
         </is>
       </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2506,6 +2601,11 @@
           <t>5711703453677</t>
         </is>
       </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2609,6 +2709,11 @@
           <t>5711703453684</t>
         </is>
       </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2712,6 +2817,11 @@
           <t>5711703407533</t>
         </is>
       </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2815,6 +2925,11 @@
           <t>5711703407540</t>
         </is>
       </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2918,6 +3033,11 @@
           <t>5711703407557</t>
         </is>
       </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3021,6 +3141,11 @@
           <t>5711703407564</t>
         </is>
       </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3122,6 +3247,11 @@
       <c r="W26" t="inlineStr">
         <is>
           <t>5711703407571</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>492</t>
         </is>
       </c>
     </row>
